--- a/data/Andante/activity-service_structure.xlsx
+++ b/data/Andante/activity-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9769" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9745" uniqueCount="640">
   <si>
     <t>Class Name</t>
   </si>
@@ -19194,7 +19194,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C402"/>
+  <dimension ref="A1:C394"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19414,10 +19414,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21">
@@ -19425,7 +19425,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>593</v>
@@ -19433,13 +19433,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23">
@@ -19447,7 +19447,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>619</v>
@@ -19458,10 +19458,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25">
@@ -19469,10 +19469,10 @@
         <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26">
@@ -19480,7 +19480,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>593</v>
@@ -19488,10 +19488,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>593</v>
@@ -19502,7 +19502,7 @@
         <v>53</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>593</v>
@@ -19510,24 +19510,24 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31">
@@ -19535,10 +19535,10 @@
         <v>59</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32">
@@ -19546,29 +19546,29 @@
         <v>59</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>593</v>
@@ -19576,10 +19576,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>593</v>
@@ -19590,7 +19590,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>593</v>
@@ -19601,10 +19601,10 @@
         <v>57</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>629</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38">
@@ -19612,10 +19612,10 @@
         <v>57</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39">
@@ -19623,7 +19623,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>593</v>
@@ -19634,7 +19634,7 @@
         <v>57</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>593</v>
@@ -19645,7 +19645,7 @@
         <v>57</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>593</v>
@@ -19656,7 +19656,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>593</v>
@@ -19667,7 +19667,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>593</v>
@@ -19678,7 +19678,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>593</v>
@@ -19689,7 +19689,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>593</v>
@@ -19700,7 +19700,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>593</v>
@@ -19711,7 +19711,7 @@
         <v>57</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>593</v>
@@ -19722,7 +19722,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>593</v>
@@ -19733,7 +19733,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>593</v>
@@ -19744,7 +19744,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>593</v>
@@ -19755,7 +19755,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>593</v>
@@ -19763,43 +19763,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>593</v>
@@ -19807,10 +19807,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>593</v>
@@ -19818,101 +19818,101 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66">
@@ -19920,10 +19920,10 @@
         <v>105</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67">
@@ -19931,40 +19931,40 @@
         <v>105</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>619</v>
@@ -19972,10 +19972,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>619</v>
@@ -19983,21 +19983,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>593</v>
@@ -20005,10 +20005,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>593</v>
@@ -20016,43 +20016,43 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>619</v>
@@ -20060,32 +20060,32 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>593</v>
@@ -20093,241 +20093,241 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>142</v>
+        <v>463</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>50</v>
+        <v>461</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>140</v>
+        <v>459</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>145</v>
+        <v>459</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>150</v>
+        <v>464</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>593</v>
@@ -20338,7 +20338,7 @@
         <v>459</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>622</v>
@@ -20349,10 +20349,10 @@
         <v>459</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106">
@@ -20360,62 +20360,62 @@
         <v>459</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>633</v>
+        <v>605</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>464</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>459</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>593</v>
@@ -20423,21 +20423,21 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>460</v>
+        <v>170</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>593</v>
@@ -20445,54 +20445,54 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>462</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>593</v>
@@ -20500,10 +20500,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>593</v>
@@ -20514,10 +20514,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121">
@@ -20525,7 +20525,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>593</v>
@@ -20536,7 +20536,7 @@
         <v>12</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>593</v>
@@ -20547,7 +20547,7 @@
         <v>12</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>593</v>
@@ -20558,7 +20558,7 @@
         <v>12</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>593</v>
@@ -20569,7 +20569,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>593</v>
@@ -20580,10 +20580,10 @@
         <v>12</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>593</v>
+        <v>634</v>
       </c>
     </row>
     <row r="127">
@@ -20591,7 +20591,7 @@
         <v>12</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>593</v>
@@ -20602,10 +20602,10 @@
         <v>12</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="129">
@@ -20613,7 +20613,7 @@
         <v>12</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>593</v>
@@ -20621,10 +20621,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>593</v>
@@ -20632,10 +20632,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>593</v>
@@ -20643,43 +20643,43 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>634</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>593</v>
@@ -20687,90 +20687,90 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>635</v>
+        <v>587</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="144">
@@ -20778,10 +20778,10 @@
         <v>183</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>587</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145">
@@ -20789,7 +20789,7 @@
         <v>183</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>619</v>
@@ -20800,10 +20800,10 @@
         <v>183</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>619</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147">
@@ -20811,95 +20811,95 @@
         <v>183</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C153" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>633</v>
+        <v>593</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>593</v>
@@ -20910,7 +20910,7 @@
         <v>177</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>593</v>
@@ -20918,43 +20918,43 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>593</v>
@@ -20962,10 +20962,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>593</v>
@@ -20973,21 +20973,21 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="C163" t="s" s="0">
         <v>593</v>
@@ -20995,21 +20995,21 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C164" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>619</v>
@@ -21017,32 +21017,32 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C167" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>593</v>
@@ -21050,13 +21050,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>593</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170">
@@ -21064,10 +21064,10 @@
         <v>208</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="171">
@@ -21075,10 +21075,10 @@
         <v>208</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="172">
@@ -21086,10 +21086,10 @@
         <v>208</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="173">
@@ -21097,150 +21097,150 @@
         <v>208</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>626</v>
+        <v>587</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C183" t="s" s="0">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C184" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C185" t="s" s="0">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C186" t="s" s="0">
         <v>619</v>
@@ -21248,120 +21248,120 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>228</v>
+        <v>108</v>
       </c>
       <c r="C187" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>587</v>
+        <v>632</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C196" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>619</v>
@@ -21369,10 +21369,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="C198" t="s" s="0">
         <v>619</v>
@@ -21380,32 +21380,32 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="C201" t="s" s="0">
         <v>593</v>
@@ -21416,18 +21416,18 @@
         <v>235</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>619</v>
@@ -21435,10 +21435,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>619</v>
@@ -21446,43 +21446,43 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C207" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C208" t="s" s="0">
         <v>619</v>
@@ -21490,87 +21490,87 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="C209" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="C214" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C215" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>619</v>
@@ -21578,32 +21578,32 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="C218" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="C219" t="s" s="0">
         <v>593</v>
@@ -21611,90 +21611,90 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>256</v>
+        <v>33</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>632</v>
+        <v>605</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="228">
@@ -21702,10 +21702,10 @@
         <v>259</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>633</v>
+        <v>605</v>
       </c>
     </row>
     <row r="229">
@@ -21713,10 +21713,10 @@
         <v>259</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="230">
@@ -21724,10 +21724,10 @@
         <v>259</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>637</v>
+        <v>609</v>
       </c>
     </row>
     <row r="231">
@@ -21735,161 +21735,161 @@
         <v>259</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>637</v>
+        <v>609</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="C243" t="s" s="0">
-        <v>637</v>
+        <v>593</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>593</v>
@@ -21897,13 +21897,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="247">
@@ -21911,7 +21911,7 @@
         <v>236</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>593</v>
@@ -21922,10 +21922,10 @@
         <v>236</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="C248" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="249">
@@ -21933,10 +21933,10 @@
         <v>236</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="C249" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="250">
@@ -21944,7 +21944,7 @@
         <v>236</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>593</v>
@@ -21955,7 +21955,7 @@
         <v>236</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>593</v>
@@ -21966,7 +21966,7 @@
         <v>236</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>593</v>
@@ -21977,7 +21977,7 @@
         <v>236</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>593</v>
@@ -21985,43 +21985,43 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>593</v>
@@ -22029,10 +22029,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>593</v>
@@ -22040,21 +22040,21 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>593</v>
@@ -22062,98 +22062,98 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="C267" t="s" s="0">
-        <v>586</v>
+        <v>622</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>622</v>
@@ -22161,35 +22161,35 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="273">
@@ -22197,10 +22197,10 @@
         <v>294</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="274">
@@ -22208,7 +22208,7 @@
         <v>294</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>622</v>
@@ -22219,7 +22219,7 @@
         <v>294</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>622</v>
@@ -22230,7 +22230,7 @@
         <v>294</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>622</v>
@@ -22241,7 +22241,7 @@
         <v>294</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>622</v>
@@ -22252,7 +22252,7 @@
         <v>294</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>622</v>
@@ -22263,7 +22263,7 @@
         <v>294</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>622</v>
@@ -22274,7 +22274,7 @@
         <v>294</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>622</v>
@@ -22285,10 +22285,10 @@
         <v>294</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="282">
@@ -22296,10 +22296,10 @@
         <v>294</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283">
@@ -22307,10 +22307,10 @@
         <v>294</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="284">
@@ -22318,10 +22318,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="285">
@@ -22329,10 +22329,10 @@
         <v>294</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="286">
@@ -22340,10 +22340,10 @@
         <v>294</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="287">
@@ -22351,10 +22351,10 @@
         <v>294</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C287" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="288">
@@ -22362,10 +22362,10 @@
         <v>294</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="C288" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="289">
@@ -22373,7 +22373,7 @@
         <v>294</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>593</v>
@@ -22384,7 +22384,7 @@
         <v>294</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>593</v>
@@ -22395,7 +22395,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>593</v>
@@ -22406,7 +22406,7 @@
         <v>294</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>593</v>
@@ -22417,7 +22417,7 @@
         <v>294</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>593</v>
@@ -22428,7 +22428,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>593</v>
@@ -22439,7 +22439,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>593</v>
@@ -22450,7 +22450,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>593</v>
@@ -22458,90 +22458,90 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>593</v>
+        <v>637</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="305">
@@ -22549,10 +22549,10 @@
         <v>329</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>633</v>
+        <v>607</v>
       </c>
     </row>
     <row r="306">
@@ -22560,7 +22560,7 @@
         <v>329</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>607</v>
@@ -22571,10 +22571,10 @@
         <v>329</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>607</v>
+        <v>636</v>
       </c>
     </row>
     <row r="308">
@@ -22582,10 +22582,10 @@
         <v>329</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="309">
@@ -22593,10 +22593,10 @@
         <v>329</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="310">
@@ -22604,98 +22604,98 @@
         <v>329</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>633</v>
+        <v>605</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>637</v>
+        <v>587</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>340</v>
+        <v>191</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>330</v>
+        <v>189</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>331</v>
+        <v>184</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>344</v>
+        <v>192</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>332</v>
+        <v>185</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="319">
@@ -22703,10 +22703,10 @@
         <v>74</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>587</v>
+        <v>619</v>
       </c>
     </row>
     <row r="320">
@@ -22714,7 +22714,7 @@
         <v>74</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="C320" t="s" s="0">
         <v>619</v>
@@ -22725,10 +22725,10 @@
         <v>74</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="322">
@@ -22736,18 +22736,18 @@
         <v>74</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>619</v>
@@ -22755,43 +22755,43 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>192</v>
+        <v>350</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>190</v>
+        <v>356</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="C327" t="s" s="0">
         <v>619</v>
@@ -22799,189 +22799,189 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>188</v>
+        <v>353</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>13</v>
+        <v>360</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>354</v>
+        <v>221</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>356</v>
+        <v>222</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>355</v>
+        <v>223</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>587</v>
+        <v>622</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>586</v>
+        <v>622</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>360</v>
+        <v>73</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>358</v>
+        <v>193</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>359</v>
+        <v>199</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>465</v>
+        <v>174</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>466</v>
+        <v>198</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="345">
@@ -22989,10 +22989,10 @@
         <v>174</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>622</v>
+        <v>638</v>
       </c>
     </row>
     <row r="346">
@@ -23000,7 +23000,7 @@
         <v>174</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>593</v>
@@ -23011,10 +23011,10 @@
         <v>174</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="348">
@@ -23022,7 +23022,7 @@
         <v>174</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>593</v>
@@ -23030,43 +23030,43 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>194</v>
+        <v>369</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="C352" t="s" s="0">
         <v>593</v>
@@ -23074,101 +23074,101 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>5</v>
+        <v>370</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>638</v>
+        <v>593</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>166</v>
+        <v>338</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>629</v>
+        <v>586</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>632</v>
+        <v>586</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>50</v>
+        <v>343</v>
       </c>
       <c r="C360" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C361" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="362">
@@ -23176,7 +23176,7 @@
         <v>372</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C362" t="s" s="0">
         <v>586</v>
@@ -23187,7 +23187,7 @@
         <v>372</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C363" t="s" s="0">
         <v>586</v>
@@ -23198,7 +23198,7 @@
         <v>372</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C364" t="s" s="0">
         <v>586</v>
@@ -23206,131 +23206,131 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>586</v>
+        <v>635</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>586</v>
+        <v>637</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>586</v>
+        <v>629</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>376</v>
+        <v>70</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>635</v>
+        <v>593</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>375</v>
+        <v>64</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>637</v>
+        <v>593</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>374</v>
+        <v>72</v>
       </c>
       <c r="C376" t="s" s="0">
         <v>593</v>
@@ -23341,7 +23341,7 @@
         <v>43</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>379</v>
+        <v>68</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>593</v>
@@ -23352,10 +23352,10 @@
         <v>43</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>378</v>
+        <v>66</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>629</v>
+        <v>593</v>
       </c>
     </row>
     <row r="379">
@@ -23363,7 +23363,7 @@
         <v>43</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>593</v>
@@ -23374,7 +23374,7 @@
         <v>43</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>593</v>
@@ -23385,7 +23385,7 @@
         <v>43</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>593</v>
@@ -23396,7 +23396,7 @@
         <v>43</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>593</v>
@@ -23407,7 +23407,7 @@
         <v>43</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>593</v>
@@ -23418,7 +23418,7 @@
         <v>43</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>593</v>
@@ -23429,7 +23429,7 @@
         <v>43</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>593</v>
@@ -23440,7 +23440,7 @@
         <v>43</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>593</v>
@@ -23451,7 +23451,7 @@
         <v>43</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>593</v>
@@ -23462,7 +23462,7 @@
         <v>43</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>593</v>
@@ -23473,7 +23473,7 @@
         <v>43</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="C389" t="s" s="0">
         <v>593</v>
@@ -23484,10 +23484,10 @@
         <v>43</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>593</v>
+        <v>639</v>
       </c>
     </row>
     <row r="391">
@@ -23495,7 +23495,7 @@
         <v>43</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>593</v>
@@ -23506,10 +23506,10 @@
         <v>43</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>593</v>
+        <v>617</v>
       </c>
     </row>
     <row r="393">
@@ -23517,7 +23517,7 @@
         <v>43</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>593</v>
@@ -23525,100 +23525,12 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="0">
-        <v>43</v>
+        <v>380</v>
       </c>
       <c r="B394" t="s" s="0">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="C394" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B395" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="C395" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B396" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C396" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B397" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C397" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B398" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C398" t="s" s="0">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B399" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="C399" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B400" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="C400" t="s" s="0">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B401" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C401" t="s" s="0">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s" s="0">
-        <v>380</v>
-      </c>
-      <c r="B402" t="s" s="0">
-        <v>413</v>
-      </c>
-      <c r="C402" t="s" s="0">
         <v>609</v>
       </c>
     </row>

--- a/data/Andante/activity-service_structure.xlsx
+++ b/data/Andante/activity-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9745" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9763" uniqueCount="640">
   <si>
     <t>Class Name</t>
   </si>
@@ -1434,45 +1434,45 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
+  </si>
+  <si>
+    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
+  </si>
+  <si>
+    <t>operationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>org.andante.mappers.OperationHttpStatusMapper</t>
+  </si>
+  <si>
+    <t>NULL_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>NULL_PAGE_SIZE_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
+  </si>
+  <si>
+    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityService</t>
+  </si>
+  <si>
     <t>activityDTOModelMapper</t>
   </si>
   <si>
-    <t>IDENTIFIERS_LIST_NULL_MESSAGE</t>
-  </si>
-  <si>
-    <t>NON_POSITIVE_PAGE_SIZE_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_IDENTIFIER_NOT_BLANK_MESSAGE</t>
-  </si>
-  <si>
     <t>IDENTIFIERS_LIST_MESSAGE</t>
   </si>
   <si>
-    <t>ACTIVITY_EMAIL_NOT_VALID_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>operationHttpStatusMapper</t>
-  </si>
-  <si>
-    <t>org.andante.mappers.OperationHttpStatusMapper</t>
-  </si>
-  <si>
     <t>ACTIVITY_EMAIL_BLANK_MESSAGE</t>
   </si>
   <si>
-    <t>NEGATIVE_PAGE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityService</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationType</t>
   </si>
   <si>
@@ -1482,103 +1482,106 @@
     <t>affectedUsers</t>
   </si>
   <si>
+    <t>domain</t>
+  </si>
+  <si>
     <t>eventTimestamp</t>
   </si>
   <si>
     <t>acknowledgedUsers</t>
   </si>
   <si>
+    <t>relatedId</t>
+  </si>
+  <si>
+    <t>affectsAll</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>priority</t>
   </si>
   <si>
-    <t>relatedId</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>affectsAll</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>decoder</t>
   </si>
   <si>
+    <t>observedUsers</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
     <t>communityImageUrl</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>imageUrl</t>
+    <t>key</t>
   </si>
   <si>
     <t>observingUsers</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>observedUsers</t>
-  </si>
-  <si>
     <t>recommendationService</t>
   </si>
   <si>
+    <t>enableStartTLS</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+  </si>
+  <si>
     <t>smtpAuth</t>
   </si>
   <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>java.lang.Integer</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>enableStartTLS</t>
+    <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>userProfileService</t>
   </si>
   <si>
+    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>USERNAME_NULL_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>jwtTokenDecoder</t>
+  </si>
+  <si>
+    <t>userProfileMapper</t>
+  </si>
+  <si>
+    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
+  </si>
+  <si>
     <t>profileService</t>
   </si>
   <si>
-    <t>USERNAME_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>USERNAME_NULL_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>userProfileMapper</t>
-  </si>
-  <si>
-    <t>IMAGE_URL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>jwtTokenDecoder</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_SIZE_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>IDENTIFIERS_LIST_NULL_ERROR_MESSAGE</t>
+    <t>affectsAll$set</t>
   </si>
   <si>
     <t>affectsAll$value</t>
   </si>
   <si>
-    <t>affectsAll$set</t>
+    <t>isConfirmed</t>
   </si>
   <si>
     <t>emailAddress</t>
@@ -1587,54 +1590,51 @@
     <t>subscriptionDate</t>
   </si>
   <si>
-    <t>isConfirmed</t>
+    <t>keycloakAdminTokenPath</t>
+  </si>
+  <si>
+    <t>keycloakUpdateUserPath</t>
+  </si>
+  <si>
+    <t>adminUsername</t>
+  </si>
+  <si>
+    <t>keycloakGetUserPath</t>
   </si>
   <si>
     <t>adminPassword</t>
   </si>
   <si>
-    <t>keycloakAdminTokenPath</t>
-  </si>
-  <si>
-    <t>keycloakUpdateUserPath</t>
-  </si>
-  <si>
-    <t>adminUsername</t>
-  </si>
-  <si>
     <t>keycloakUrl</t>
   </si>
   <si>
-    <t>keycloakGetUserPath</t>
-  </si>
-  <si>
     <t>observed</t>
   </si>
   <si>
     <t>observers</t>
   </si>
   <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>NEWSLETTER_TEMPLATE</t>
+  </si>
+  <si>
+    <t>mailSender</t>
+  </si>
+  <si>
+    <t>templateEngine</t>
+  </si>
+  <si>
+    <t>org.thymeleaf.TemplateEngine</t>
+  </si>
+  <si>
     <t>logo</t>
   </si>
   <si>
     <t>org.springframework.core.io.Resource</t>
   </si>
   <si>
-    <t>mailSender</t>
-  </si>
-  <si>
-    <t>NEWSLETTER_TEMPLATE</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>templateEngine</t>
-  </si>
-  <si>
-    <t>org.thymeleaf.TemplateEngine</t>
-  </si>
-  <si>
     <t>NEWSLETTER_TITLE</t>
   </si>
   <si>
@@ -1644,127 +1644,127 @@
     <t>USER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
+    <t>userProfileRepository</t>
+  </si>
+  <si>
     <t>userProfileModelEntityMapper</t>
   </si>
   <si>
-    <t>userProfileRepository</t>
-  </si>
-  <si>
     <t>issuerUri</t>
   </si>
   <si>
     <t>newsletterRepository</t>
   </si>
   <si>
+    <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>newsletterMapper</t>
   </si>
   <si>
     <t>NEWSLETTER_CONFLICT_EXCEPTION_MESSAGE</t>
   </si>
   <si>
-    <t>NEWSLETTER_NOT_FOUND_EXCEPTION_MESSAGE</t>
+    <t>privateToken</t>
   </si>
   <si>
     <t>databaseId</t>
   </si>
   <si>
-    <t>privateToken</t>
-  </si>
-  <si>
     <t>bootstrapServers</t>
   </si>
   <si>
+    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>activityModelEntityMapper</t>
+  </si>
+  <si>
+    <t>rsqlParser</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.RSQLParser</t>
+  </si>
+  <si>
+    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
+  </si>
+  <si>
     <t>activityRepository</t>
   </si>
   <si>
-    <t>USER_NOT_AFFECTED_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>ACTIVITY_NOT_FOUND_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
     <t>rsqlVisitor</t>
   </si>
   <si>
     <t>org.andante.rsql.PersistentRSQLVisitor</t>
   </si>
   <si>
-    <t>rsqlParser</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.RSQLParser</t>
-  </si>
-  <si>
-    <t>ACTIVITY_CONFLICT_EXCEPTION_MESSAGE</t>
-  </si>
-  <si>
-    <t>activityModelEntityMapper</t>
+    <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>newsletterService</t>
   </si>
   <si>
-    <t>EMAIL_BLANK_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>emailSender</t>
   </si>
   <si>
-    <t>EMAIL_NOT_VALID_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>activityConfiguration</t>
   </si>
   <si>
+    <t>val$productOutputDTO</t>
+  </si>
+  <si>
+    <t>org.andante.product.dto.ProductOutputDTO</t>
+  </si>
+  <si>
+    <t>this$0</t>
+  </si>
+  <si>
     <t>threshold</t>
   </si>
   <si>
+    <t>TREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
     <t>DEFAULT_INITIAL_CAPACITY</t>
   </si>
   <si>
+    <t>entrySet</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>loadFactor</t>
+  </si>
+  <si>
+    <t>MIN_TREEIFY_CAPACITY</t>
+  </si>
+  <si>
+    <t>modCount</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
     <t>MAXIMUM_CAPACITY</t>
   </si>
   <si>
-    <t>TREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>this$0</t>
-  </si>
-  <si>
-    <t>val$productOutputDTO</t>
-  </si>
-  <si>
-    <t>org.andante.product.dto.ProductOutputDTO</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>entrySet</t>
-  </si>
-  <si>
-    <t>loadFactor</t>
+    <t>UNTREEIFY_THRESHOLD</t>
+  </si>
+  <si>
+    <t>keySet</t>
   </si>
   <si>
     <t>DEFAULT_LOAD_FACTOR</t>
-  </si>
-  <si>
-    <t>keySet</t>
-  </si>
-  <si>
-    <t>UNTREEIFY_THRESHOLD</t>
-  </si>
-  <si>
-    <t>modCount</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>MIN_TREEIFY_CAPACITY</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -19194,7 +19194,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C394"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19414,10 +19414,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21">
@@ -19425,7 +19425,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>593</v>
@@ -19433,13 +19433,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23">
@@ -19447,7 +19447,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>619</v>
@@ -19458,10 +19458,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25">
@@ -19469,10 +19469,10 @@
         <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26">
@@ -19480,7 +19480,7 @@
         <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>593</v>
@@ -19488,10 +19488,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>593</v>
@@ -19502,7 +19502,7 @@
         <v>53</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>593</v>
@@ -19510,13 +19510,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30">
@@ -19524,7 +19524,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>619</v>
@@ -19535,10 +19535,10 @@
         <v>59</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32">
@@ -19546,18 +19546,18 @@
         <v>59</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>593</v>
@@ -19565,10 +19565,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>593</v>
@@ -19579,7 +19579,7 @@
         <v>57</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>593</v>
@@ -19590,10 +19590,10 @@
         <v>57</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37">
@@ -19601,10 +19601,10 @@
         <v>57</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38">
@@ -19612,7 +19612,7 @@
         <v>57</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>593</v>
@@ -19623,7 +19623,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>593</v>
@@ -19634,7 +19634,7 @@
         <v>57</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>593</v>
@@ -19645,7 +19645,7 @@
         <v>57</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>593</v>
@@ -19656,7 +19656,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>593</v>
@@ -19667,7 +19667,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>593</v>
@@ -19678,7 +19678,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>593</v>
@@ -19689,7 +19689,7 @@
         <v>57</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>593</v>
@@ -19700,7 +19700,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>593</v>
@@ -19711,7 +19711,7 @@
         <v>57</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>593</v>
@@ -19722,7 +19722,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>593</v>
@@ -19733,7 +19733,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>593</v>
@@ -19744,7 +19744,7 @@
         <v>57</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>593</v>
@@ -19755,7 +19755,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>593</v>
@@ -19763,43 +19763,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>593</v>
@@ -19810,87 +19810,87 @@
         <v>90</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>586</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="64">
@@ -19898,10 +19898,10 @@
         <v>105</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65">
@@ -19909,7 +19909,7 @@
         <v>105</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>619</v>
@@ -19920,10 +19920,10 @@
         <v>105</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="67">
@@ -19931,40 +19931,40 @@
         <v>105</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>619</v>
@@ -19972,120 +19972,120 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>593</v>
@@ -20093,10 +20093,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>593</v>
@@ -20104,21 +20104,21 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>619</v>
@@ -20126,10 +20126,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>632</v>
@@ -20137,7 +20137,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>50</v>
@@ -20148,32 +20148,32 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>619</v>
@@ -20181,10 +20181,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>632</v>
@@ -20192,7 +20192,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>50</v>
@@ -20203,112 +20203,112 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>459</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>463</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>459</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>459</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>461</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>633</v>
+        <v>609</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>459</v>
+        <v>145</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>459</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>459</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="102">
@@ -20316,7 +20316,7 @@
         <v>459</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>622</v>
@@ -20327,10 +20327,10 @@
         <v>459</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="104">
@@ -20338,10 +20338,10 @@
         <v>459</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="105">
@@ -20349,10 +20349,10 @@
         <v>459</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106">
@@ -20360,18 +20360,18 @@
         <v>459</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>462</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>619</v>
@@ -20379,43 +20379,43 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>153</v>
+        <v>464</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>50</v>
+        <v>460</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>152</v>
+        <v>459</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>593</v>
@@ -20423,54 +20423,54 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>169</v>
+        <v>50</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>593</v>
@@ -20478,10 +20478,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>593</v>
@@ -20492,10 +20492,10 @@
         <v>12</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="119">
@@ -20503,7 +20503,7 @@
         <v>12</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>593</v>
@@ -20514,7 +20514,7 @@
         <v>12</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>593</v>
@@ -20525,7 +20525,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>593</v>
@@ -20536,7 +20536,7 @@
         <v>12</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>593</v>
@@ -20547,7 +20547,7 @@
         <v>12</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>593</v>
@@ -20558,7 +20558,7 @@
         <v>12</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>593</v>
@@ -20569,7 +20569,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>593</v>
@@ -20580,10 +20580,10 @@
         <v>12</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>634</v>
+        <v>593</v>
       </c>
     </row>
     <row r="127">
@@ -20591,7 +20591,7 @@
         <v>12</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>593</v>
@@ -20602,10 +20602,10 @@
         <v>12</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>635</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129">
@@ -20613,7 +20613,7 @@
         <v>12</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>593</v>
@@ -20621,10 +20621,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C130" t="s" s="0">
         <v>593</v>
@@ -20632,10 +20632,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>593</v>
@@ -20643,43 +20643,43 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>587</v>
+        <v>634</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>593</v>
@@ -20687,68 +20687,68 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="142">
@@ -20756,10 +20756,10 @@
         <v>183</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C142" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="143">
@@ -20767,7 +20767,7 @@
         <v>183</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>619</v>
@@ -20778,10 +20778,10 @@
         <v>183</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C144" t="s" s="0">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="145">
@@ -20789,7 +20789,7 @@
         <v>183</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>619</v>
@@ -20800,10 +20800,10 @@
         <v>183</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="147">
@@ -20811,73 +20811,73 @@
         <v>183</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="C147" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C149" t="s" s="0">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C150" t="s" s="0">
-        <v>587</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>593</v>
@@ -20888,7 +20888,7 @@
         <v>177</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>593</v>
@@ -20899,10 +20899,10 @@
         <v>177</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="156">
@@ -20910,51 +20910,51 @@
         <v>177</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C156" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C157" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C158" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C159" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>593</v>
@@ -20962,10 +20962,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>593</v>
@@ -20973,32 +20973,32 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="C162" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>619</v>
@@ -21006,32 +21006,32 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>593</v>
@@ -21042,10 +21042,10 @@
         <v>208</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="169">
@@ -21053,10 +21053,10 @@
         <v>208</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>626</v>
+        <v>593</v>
       </c>
     </row>
     <row r="170">
@@ -21064,10 +21064,10 @@
         <v>208</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="171">
@@ -21075,10 +21075,10 @@
         <v>208</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="172">
@@ -21086,10 +21086,10 @@
         <v>208</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C172" t="s" s="0">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="173">
@@ -21097,117 +21097,117 @@
         <v>208</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C173" t="s" s="0">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C174" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>586</v>
+        <v>626</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C177" t="s" s="0">
-        <v>587</v>
+        <v>609</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C178" t="s" s="0">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C179" t="s" s="0">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C180" t="s" s="0">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>587</v>
@@ -21215,7 +21215,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B184" t="s" s="0">
         <v>227</v>
@@ -21226,7 +21226,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B185" t="s" s="0">
         <v>228</v>
@@ -21237,7 +21237,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B186" t="s" s="0">
         <v>225</v>
@@ -21248,7 +21248,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B187" t="s" s="0">
         <v>108</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B188" t="s" s="0">
         <v>13</v>
@@ -21270,21 +21270,21 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>619</v>
@@ -21292,32 +21292,32 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>233</v>
+        <v>108</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>593</v>
@@ -21325,21 +21325,21 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>619</v>
@@ -21347,10 +21347,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>619</v>
@@ -21358,35 +21358,35 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C199" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200">
@@ -21394,10 +21394,10 @@
         <v>235</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C200" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="201">
@@ -21405,10 +21405,10 @@
         <v>235</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="202">
@@ -21416,18 +21416,18 @@
         <v>235</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C202" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>619</v>
@@ -21435,10 +21435,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>619</v>
@@ -21446,32 +21446,32 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C205" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>593</v>
@@ -21479,21 +21479,21 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>619</v>
@@ -21501,32 +21501,32 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>248</v>
+        <v>50</v>
       </c>
       <c r="C212" t="s" s="0">
         <v>593</v>
@@ -21534,21 +21534,21 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C213" t="s" s="0">
-        <v>636</v>
+        <v>593</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>619</v>
@@ -21556,10 +21556,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>619</v>
@@ -21567,32 +21567,32 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C216" t="s" s="0">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>593</v>
@@ -21600,79 +21600,79 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>593</v>
+        <v>636</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C224" t="s" s="0">
-        <v>617</v>
+        <v>593</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="226">
@@ -21680,10 +21680,10 @@
         <v>259</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C226" t="s" s="0">
-        <v>619</v>
+        <v>633</v>
       </c>
     </row>
     <row r="227">
@@ -21691,10 +21691,10 @@
         <v>259</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="228">
@@ -21702,10 +21702,10 @@
         <v>259</v>
       </c>
       <c r="B228" t="s" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C228" t="s" s="0">
-        <v>605</v>
+        <v>637</v>
       </c>
     </row>
     <row r="229">
@@ -21713,10 +21713,10 @@
         <v>259</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="230">
@@ -21724,10 +21724,10 @@
         <v>259</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="C230" t="s" s="0">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="231">
@@ -21735,95 +21735,95 @@
         <v>259</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C233" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C236" t="s" s="0">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>593</v>
+        <v>609</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C238" t="s" s="0">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="C239" t="s" s="0">
         <v>593</v>
@@ -21831,43 +21831,43 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="C240" t="s" s="0">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="C241" t="s" s="0">
-        <v>587</v>
+        <v>637</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>593</v>
@@ -21875,13 +21875,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="C244" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="245">
@@ -21889,7 +21889,7 @@
         <v>236</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="C245" t="s" s="0">
         <v>593</v>
@@ -21900,10 +21900,10 @@
         <v>236</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C246" t="s" s="0">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="247">
@@ -21911,10 +21911,10 @@
         <v>236</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C247" t="s" s="0">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="248">
@@ -21922,7 +21922,7 @@
         <v>236</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>593</v>
@@ -21933,7 +21933,7 @@
         <v>236</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>593</v>
@@ -21944,7 +21944,7 @@
         <v>236</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>593</v>
@@ -21955,7 +21955,7 @@
         <v>236</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>593</v>
@@ -21966,7 +21966,7 @@
         <v>236</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>593</v>
@@ -21977,7 +21977,7 @@
         <v>236</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>593</v>
@@ -21985,43 +21985,43 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="C254" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>279</v>
+        <v>161</v>
       </c>
       <c r="C256" t="s" s="0">
-        <v>632</v>
+        <v>593</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>593</v>
@@ -22029,10 +22029,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C258" t="s" s="0">
         <v>593</v>
@@ -22040,65 +22040,65 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C260" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C261" t="s" s="0">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C262" t="s" s="0">
-        <v>593</v>
+        <v>632</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="C263" t="s" s="0">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C264" t="s" s="0">
         <v>593</v>
@@ -22106,32 +22106,32 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C265" t="s" s="0">
-        <v>609</v>
+        <v>586</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>622</v>
@@ -22139,35 +22139,35 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="C268" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C269" t="s" s="0">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C270" t="s" s="0">
-        <v>622</v>
+        <v>593</v>
       </c>
     </row>
     <row r="271">
@@ -22175,10 +22175,10 @@
         <v>294</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C271" t="s" s="0">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="272">
@@ -22186,7 +22186,7 @@
         <v>294</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C272" t="s" s="0">
         <v>622</v>
@@ -22197,7 +22197,7 @@
         <v>294</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C273" t="s" s="0">
         <v>622</v>
@@ -22208,7 +22208,7 @@
         <v>294</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="C274" t="s" s="0">
         <v>622</v>
@@ -22219,7 +22219,7 @@
         <v>294</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>622</v>
@@ -22230,7 +22230,7 @@
         <v>294</v>
       </c>
       <c r="B276" t="s" s="0">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C276" t="s" s="0">
         <v>622</v>
@@ -22241,7 +22241,7 @@
         <v>294</v>
       </c>
       <c r="B277" t="s" s="0">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C277" t="s" s="0">
         <v>622</v>
@@ -22252,7 +22252,7 @@
         <v>294</v>
       </c>
       <c r="B278" t="s" s="0">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C278" t="s" s="0">
         <v>622</v>
@@ -22263,7 +22263,7 @@
         <v>294</v>
       </c>
       <c r="B279" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C279" t="s" s="0">
         <v>622</v>
@@ -22274,7 +22274,7 @@
         <v>294</v>
       </c>
       <c r="B280" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C280" t="s" s="0">
         <v>622</v>
@@ -22285,10 +22285,10 @@
         <v>294</v>
       </c>
       <c r="B281" t="s" s="0">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C281" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="282">
@@ -22296,10 +22296,10 @@
         <v>294</v>
       </c>
       <c r="B282" t="s" s="0">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C282" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="283">
@@ -22307,10 +22307,10 @@
         <v>294</v>
       </c>
       <c r="B283" t="s" s="0">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C283" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="284">
@@ -22318,10 +22318,10 @@
         <v>294</v>
       </c>
       <c r="B284" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C284" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="285">
@@ -22329,10 +22329,10 @@
         <v>294</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C285" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="286">
@@ -22340,10 +22340,10 @@
         <v>294</v>
       </c>
       <c r="B286" t="s" s="0">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="C286" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="287">
@@ -22351,7 +22351,7 @@
         <v>294</v>
       </c>
       <c r="B287" t="s" s="0">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C287" t="s" s="0">
         <v>593</v>
@@ -22362,7 +22362,7 @@
         <v>294</v>
       </c>
       <c r="B288" t="s" s="0">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C288" t="s" s="0">
         <v>593</v>
@@ -22373,7 +22373,7 @@
         <v>294</v>
       </c>
       <c r="B289" t="s" s="0">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="C289" t="s" s="0">
         <v>593</v>
@@ -22384,7 +22384,7 @@
         <v>294</v>
       </c>
       <c r="B290" t="s" s="0">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C290" t="s" s="0">
         <v>593</v>
@@ -22395,7 +22395,7 @@
         <v>294</v>
       </c>
       <c r="B291" t="s" s="0">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C291" t="s" s="0">
         <v>593</v>
@@ -22406,7 +22406,7 @@
         <v>294</v>
       </c>
       <c r="B292" t="s" s="0">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C292" t="s" s="0">
         <v>593</v>
@@ -22417,7 +22417,7 @@
         <v>294</v>
       </c>
       <c r="B293" t="s" s="0">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C293" t="s" s="0">
         <v>593</v>
@@ -22428,7 +22428,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s" s="0">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C294" t="s" s="0">
         <v>593</v>
@@ -22439,7 +22439,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s" s="0">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C295" t="s" s="0">
         <v>593</v>
@@ -22450,7 +22450,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s" s="0">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C296" t="s" s="0">
         <v>593</v>
@@ -22458,68 +22458,68 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B297" t="s" s="0">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>633</v>
+        <v>593</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B298" t="s" s="0">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B299" t="s" s="0">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B300" t="s" s="0">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B301" t="s" s="0">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="B302" t="s" s="0">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>633</v>
+        <v>593</v>
       </c>
     </row>
     <row r="303">
@@ -22527,10 +22527,10 @@
         <v>329</v>
       </c>
       <c r="B303" t="s" s="0">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="304">
@@ -22538,7 +22538,7 @@
         <v>329</v>
       </c>
       <c r="B304" t="s" s="0">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C304" t="s" s="0">
         <v>607</v>
@@ -22549,7 +22549,7 @@
         <v>329</v>
       </c>
       <c r="B305" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C305" t="s" s="0">
         <v>607</v>
@@ -22560,7 +22560,7 @@
         <v>329</v>
       </c>
       <c r="B306" t="s" s="0">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C306" t="s" s="0">
         <v>607</v>
@@ -22571,10 +22571,10 @@
         <v>329</v>
       </c>
       <c r="B307" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>636</v>
+        <v>607</v>
       </c>
     </row>
     <row r="308">
@@ -22582,10 +22582,10 @@
         <v>329</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="309">
@@ -22593,10 +22593,10 @@
         <v>329</v>
       </c>
       <c r="B309" t="s" s="0">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>593</v>
+        <v>637</v>
       </c>
     </row>
     <row r="310">
@@ -22604,76 +22604,76 @@
         <v>329</v>
       </c>
       <c r="B310" t="s" s="0">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B311" t="s" s="0">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>587</v>
+        <v>607</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B312" t="s" s="0">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B313" t="s" s="0">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>619</v>
+        <v>636</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B314" t="s" s="0">
-        <v>189</v>
+        <v>344</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B315" t="s" s="0">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="B316" t="s" s="0">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>619</v>
+        <v>605</v>
       </c>
     </row>
     <row r="317">
@@ -22681,10 +22681,10 @@
         <v>74</v>
       </c>
       <c r="B317" t="s" s="0">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>619</v>
+        <v>587</v>
       </c>
     </row>
     <row r="318">
@@ -22692,7 +22692,7 @@
         <v>74</v>
       </c>
       <c r="B318" t="s" s="0">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C318" t="s" s="0">
         <v>619</v>
@@ -22703,7 +22703,7 @@
         <v>74</v>
       </c>
       <c r="B319" t="s" s="0">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C319" t="s" s="0">
         <v>619</v>
@@ -22714,7 +22714,7 @@
         <v>74</v>
       </c>
       <c r="B320" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C320" t="s" s="0">
         <v>619</v>
@@ -22725,10 +22725,10 @@
         <v>74</v>
       </c>
       <c r="B321" t="s" s="0">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="322">
@@ -22736,18 +22736,18 @@
         <v>74</v>
       </c>
       <c r="B322" t="s" s="0">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B323" t="s" s="0">
-        <v>352</v>
+        <v>185</v>
       </c>
       <c r="C323" t="s" s="0">
         <v>619</v>
@@ -22755,211 +22755,211 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B324" t="s" s="0">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B325" t="s" s="0">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B326" t="s" s="0">
-        <v>356</v>
+        <v>188</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B327" t="s" s="0">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>349</v>
+        <v>74</v>
       </c>
       <c r="B328" t="s" s="0">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B329" t="s" s="0">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B330" t="s" s="0">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B331" t="s" s="0">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="B333" t="s" s="0">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>465</v>
+        <v>349</v>
       </c>
       <c r="B334" t="s" s="0">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>622</v>
+        <v>587</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>465</v>
+        <v>357</v>
       </c>
       <c r="B335" t="s" s="0">
-        <v>223</v>
+        <v>361</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>465</v>
+        <v>357</v>
       </c>
       <c r="B336" t="s" s="0">
-        <v>466</v>
+        <v>360</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="B337" t="s" s="0">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>174</v>
+        <v>357</v>
       </c>
       <c r="B338" t="s" s="0">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="B339" t="s" s="0">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="B340" t="s" s="0">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="B341" t="s" s="0">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="B342" t="s" s="0">
-        <v>195</v>
+        <v>466</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="343">
@@ -22967,10 +22967,10 @@
         <v>174</v>
       </c>
       <c r="B343" t="s" s="0">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>593</v>
+        <v>622</v>
       </c>
     </row>
     <row r="344">
@@ -22978,7 +22978,7 @@
         <v>174</v>
       </c>
       <c r="B344" t="s" s="0">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="C344" t="s" s="0">
         <v>593</v>
@@ -22989,10 +22989,10 @@
         <v>174</v>
       </c>
       <c r="B345" t="s" s="0">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>638</v>
+        <v>593</v>
       </c>
     </row>
     <row r="346">
@@ -23000,7 +23000,7 @@
         <v>174</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C346" t="s" s="0">
         <v>593</v>
@@ -23011,10 +23011,10 @@
         <v>174</v>
       </c>
       <c r="B347" t="s" s="0">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>629</v>
+        <v>593</v>
       </c>
     </row>
     <row r="348">
@@ -23022,7 +23022,7 @@
         <v>174</v>
       </c>
       <c r="B348" t="s" s="0">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="C348" t="s" s="0">
         <v>593</v>
@@ -23030,43 +23030,43 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B349" t="s" s="0">
-        <v>369</v>
+        <v>197</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B350" t="s" s="0">
-        <v>368</v>
+        <v>198</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>619</v>
+        <v>593</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B351" t="s" s="0">
-        <v>371</v>
+        <v>5</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B352" t="s" s="0">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C352" t="s" s="0">
         <v>593</v>
@@ -23074,79 +23074,79 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="B353" t="s" s="0">
-        <v>370</v>
+        <v>22</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="B354" t="s" s="0">
-        <v>338</v>
+        <v>13</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B355" t="s" s="0">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="C355" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B356" t="s" s="0">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="C356" t="s" s="0">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B357" t="s" s="0">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C357" t="s" s="0">
-        <v>586</v>
+        <v>632</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B358" t="s" s="0">
-        <v>337</v>
+        <v>50</v>
       </c>
       <c r="C358" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="C359" t="s" s="0">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="360">
@@ -23154,7 +23154,7 @@
         <v>372</v>
       </c>
       <c r="B360" t="s" s="0">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C360" t="s" s="0">
         <v>586</v>
@@ -23165,7 +23165,7 @@
         <v>372</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C361" t="s" s="0">
         <v>586</v>
@@ -23176,7 +23176,7 @@
         <v>372</v>
       </c>
       <c r="B362" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C362" t="s" s="0">
         <v>586</v>
@@ -23187,7 +23187,7 @@
         <v>372</v>
       </c>
       <c r="B363" t="s" s="0">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C363" t="s" s="0">
         <v>586</v>
@@ -23198,7 +23198,7 @@
         <v>372</v>
       </c>
       <c r="B364" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C364" t="s" s="0">
         <v>586</v>
@@ -23206,109 +23206,109 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B365" t="s" s="0">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="C365" t="s" s="0">
-        <v>605</v>
+        <v>586</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B366" t="s" s="0">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C366" t="s" s="0">
-        <v>635</v>
+        <v>586</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B367" t="s" s="0">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="C367" t="s" s="0">
-        <v>637</v>
+        <v>586</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B368" t="s" s="0">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B369" t="s" s="0">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B370" t="s" s="0">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>629</v>
+        <v>586</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="B371" t="s" s="0">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="B372" t="s" s="0">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="B373" t="s" s="0">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>593</v>
+        <v>637</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="B374" t="s" s="0">
-        <v>70</v>
+        <v>374</v>
       </c>
       <c r="C374" t="s" s="0">
         <v>593</v>
@@ -23319,7 +23319,7 @@
         <v>43</v>
       </c>
       <c r="B375" t="s" s="0">
-        <v>64</v>
+        <v>379</v>
       </c>
       <c r="C375" t="s" s="0">
         <v>593</v>
@@ -23330,10 +23330,10 @@
         <v>43</v>
       </c>
       <c r="B376" t="s" s="0">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="377">
@@ -23341,7 +23341,7 @@
         <v>43</v>
       </c>
       <c r="B377" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C377" t="s" s="0">
         <v>593</v>
@@ -23352,7 +23352,7 @@
         <v>43</v>
       </c>
       <c r="B378" t="s" s="0">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="C378" t="s" s="0">
         <v>593</v>
@@ -23363,7 +23363,7 @@
         <v>43</v>
       </c>
       <c r="B379" t="s" s="0">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C379" t="s" s="0">
         <v>593</v>
@@ -23374,7 +23374,7 @@
         <v>43</v>
       </c>
       <c r="B380" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C380" t="s" s="0">
         <v>593</v>
@@ -23385,7 +23385,7 @@
         <v>43</v>
       </c>
       <c r="B381" t="s" s="0">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="C381" t="s" s="0">
         <v>593</v>
@@ -23396,7 +23396,7 @@
         <v>43</v>
       </c>
       <c r="B382" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C382" t="s" s="0">
         <v>593</v>
@@ -23407,7 +23407,7 @@
         <v>43</v>
       </c>
       <c r="B383" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C383" t="s" s="0">
         <v>593</v>
@@ -23418,7 +23418,7 @@
         <v>43</v>
       </c>
       <c r="B384" t="s" s="0">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C384" t="s" s="0">
         <v>593</v>
@@ -23429,7 +23429,7 @@
         <v>43</v>
       </c>
       <c r="B385" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C385" t="s" s="0">
         <v>593</v>
@@ -23440,7 +23440,7 @@
         <v>43</v>
       </c>
       <c r="B386" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C386" t="s" s="0">
         <v>593</v>
@@ -23451,7 +23451,7 @@
         <v>43</v>
       </c>
       <c r="B387" t="s" s="0">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C387" t="s" s="0">
         <v>593</v>
@@ -23462,7 +23462,7 @@
         <v>43</v>
       </c>
       <c r="B388" t="s" s="0">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C388" t="s" s="0">
         <v>593</v>
@@ -23473,7 +23473,7 @@
         <v>43</v>
       </c>
       <c r="B389" t="s" s="0">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C389" t="s" s="0">
         <v>593</v>
@@ -23484,10 +23484,10 @@
         <v>43</v>
       </c>
       <c r="B390" t="s" s="0">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>639</v>
+        <v>593</v>
       </c>
     </row>
     <row r="391">
@@ -23495,7 +23495,7 @@
         <v>43</v>
       </c>
       <c r="B391" t="s" s="0">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="C391" t="s" s="0">
         <v>593</v>
@@ -23506,10 +23506,10 @@
         <v>43</v>
       </c>
       <c r="B392" t="s" s="0">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>617</v>
+        <v>593</v>
       </c>
     </row>
     <row r="393">
@@ -23517,7 +23517,7 @@
         <v>43</v>
       </c>
       <c r="B393" t="s" s="0">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C393" t="s" s="0">
         <v>593</v>
@@ -23525,12 +23525,78 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="B394" t="s" s="0">
+      <c r="B400" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="C394" t="s" s="0">
+      <c r="C400" t="s" s="0">
         <v>609</v>
       </c>
     </row>
@@ -24327,7 +24393,7 @@
         <v>47</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -24341,7 +24407,7 @@
         <v>47</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5">
@@ -24349,7 +24415,7 @@
         <v>456</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>47</v>
@@ -24363,7 +24429,7 @@
         <v>456</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>47</v>
@@ -24377,7 +24443,7 @@
         <v>456</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>47</v>
@@ -24391,7 +24457,7 @@
         <v>456</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>47</v>
@@ -24405,7 +24471,7 @@
         <v>456</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>47</v>
@@ -24419,13 +24485,13 @@
         <v>456</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>479</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11">
@@ -24439,7 +24505,7 @@
         <v>47</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -24467,7 +24533,7 @@
         <v>47</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>372</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -24489,7 +24555,7 @@
         <v>45</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>47</v>
@@ -24517,7 +24583,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>47</v>
@@ -24551,7 +24617,7 @@
         <v>47</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -24565,7 +24631,7 @@
         <v>47</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -24579,7 +24645,7 @@
         <v>47</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -24607,7 +24673,7 @@
         <v>47</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -24621,7 +24687,7 @@
         <v>47</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -24635,7 +24701,7 @@
         <v>47</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -24657,7 +24723,7 @@
         <v>90</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>47</v>
@@ -24719,7 +24785,7 @@
         <v>47</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -24761,7 +24827,7 @@
         <v>47</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -24811,7 +24877,7 @@
         <v>120</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>47</v>
@@ -24825,7 +24891,7 @@
         <v>130</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>47</v>
@@ -24839,13 +24905,13 @@
         <v>135</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>372</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
@@ -24853,13 +24919,13 @@
         <v>135</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>281</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
@@ -24867,7 +24933,7 @@
         <v>140</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>47</v>
@@ -24901,7 +24967,7 @@
         <v>47</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>504</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -24909,7 +24975,7 @@
         <v>145</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>47</v>
@@ -24937,13 +25003,13 @@
         <v>145</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>14</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48">
@@ -24971,7 +25037,7 @@
         <v>47</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -24985,7 +25051,7 @@
         <v>47</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -25027,7 +25093,7 @@
         <v>47</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -25041,7 +25107,7 @@
         <v>47</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
@@ -25055,7 +25121,7 @@
         <v>47</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -25083,7 +25149,7 @@
         <v>47</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">
@@ -25091,7 +25157,7 @@
         <v>152</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>47</v>
@@ -25105,13 +25171,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -25119,7 +25185,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>47</v>
@@ -25133,13 +25199,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -25147,13 +25213,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -25161,13 +25227,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -25203,7 +25269,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>47</v>
@@ -25217,13 +25283,13 @@
         <v>183</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -25245,13 +25311,13 @@
         <v>183</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70">
@@ -25265,7 +25331,7 @@
         <v>47</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -25273,13 +25339,13 @@
         <v>183</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -25287,13 +25353,13 @@
         <v>183</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73">
@@ -25301,13 +25367,13 @@
         <v>183</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -25315,13 +25381,13 @@
         <v>183</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -25335,7 +25401,7 @@
         <v>47</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76">
@@ -25349,7 +25415,7 @@
         <v>47</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
@@ -25363,7 +25429,7 @@
         <v>47</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -25377,7 +25443,7 @@
         <v>47</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
@@ -25399,7 +25465,7 @@
         <v>203</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>47</v>
@@ -25427,13 +25493,13 @@
         <v>208</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -25441,7 +25507,7 @@
         <v>208</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>47</v>
@@ -25455,7 +25521,7 @@
         <v>208</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>47</v>
@@ -25469,13 +25535,13 @@
         <v>208</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -25517,7 +25583,7 @@
         <v>47</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -25525,7 +25591,7 @@
         <v>224</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>47</v>
@@ -25539,13 +25605,13 @@
         <v>224</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
@@ -25553,13 +25619,13 @@
         <v>201</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
@@ -25567,7 +25633,7 @@
         <v>201</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>47</v>
@@ -25587,7 +25653,7 @@
         <v>47</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -25595,7 +25661,7 @@
         <v>230</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>47</v>
@@ -25609,7 +25675,7 @@
         <v>235</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>47</v>
@@ -25637,13 +25703,13 @@
         <v>235</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -25651,7 +25717,7 @@
         <v>235</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>47</v>
@@ -25665,13 +25731,13 @@
         <v>235</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -25679,7 +25745,7 @@
         <v>235</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>47</v>
@@ -25693,7 +25759,7 @@
         <v>241</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>47</v>
@@ -25707,7 +25773,7 @@
         <v>246</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>47</v>
@@ -25727,7 +25793,7 @@
         <v>47</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>531</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -25735,13 +25801,13 @@
         <v>251</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>147</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -25749,13 +25815,13 @@
         <v>251</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106">
@@ -25763,13 +25829,13 @@
         <v>251</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>14</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107">
@@ -25805,7 +25871,7 @@
         <v>254</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>47</v>
@@ -25853,7 +25919,7 @@
         <v>47</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>285</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113">
@@ -25867,7 +25933,7 @@
         <v>47</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>115</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114">
@@ -25909,7 +25975,7 @@
         <v>47</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -25923,7 +25989,7 @@
         <v>47</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="118">
@@ -25945,7 +26011,7 @@
         <v>236</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>47</v>
@@ -25959,7 +26025,7 @@
         <v>236</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>47</v>
@@ -25973,7 +26039,7 @@
         <v>236</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>47</v>
@@ -25987,7 +26053,7 @@
         <v>236</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>47</v>
@@ -26001,13 +26067,13 @@
         <v>236</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -26015,13 +26081,13 @@
         <v>236</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="C124" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -26029,7 +26095,7 @@
         <v>276</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>47</v>
@@ -26057,7 +26123,7 @@
         <v>285</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C127" t="s" s="0">
         <v>47</v>
@@ -26133,7 +26199,7 @@
         <v>47</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>357</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -26147,7 +26213,7 @@
         <v>47</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134">
@@ -26161,7 +26227,7 @@
         <v>47</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>14</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135">
@@ -26169,13 +26235,13 @@
         <v>329</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>554</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -26189,7 +26255,7 @@
         <v>47</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>556</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -26197,13 +26263,13 @@
         <v>329</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>14</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138">
@@ -26211,13 +26277,13 @@
         <v>329</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C138" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>53</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139">
@@ -26239,13 +26305,13 @@
         <v>74</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C140" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
@@ -26253,13 +26319,13 @@
         <v>74</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142">
@@ -26267,7 +26333,7 @@
         <v>74</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>47</v>
@@ -26281,7 +26347,7 @@
         <v>74</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C143" t="s" s="0">
         <v>47</v>
@@ -26295,13 +26361,13 @@
         <v>74</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D144" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145">
@@ -26309,13 +26375,13 @@
         <v>74</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -26323,13 +26389,13 @@
         <v>74</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C146" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -26337,13 +26403,13 @@
         <v>74</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148">
@@ -26351,13 +26417,13 @@
         <v>74</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C148" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D148" t="s" s="0">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149">
@@ -26379,13 +26445,13 @@
         <v>465</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>178</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -26393,13 +26459,13 @@
         <v>465</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C151" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>220</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -26407,13 +26473,13 @@
         <v>465</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>14</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153">
@@ -26421,7 +26487,7 @@
         <v>465</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>47</v>
@@ -26435,13 +26501,13 @@
         <v>465</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155">
@@ -26491,7 +26557,7 @@
         <v>174</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>47</v>
@@ -26511,7 +26577,7 @@
         <v>47</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
@@ -26519,13 +26585,13 @@
         <v>174</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161">
@@ -26533,7 +26599,7 @@
         <v>367</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C161" t="s" s="0">
         <v>47</v>
@@ -26575,13 +26641,13 @@
         <v>43</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165">
@@ -26589,13 +26655,13 @@
         <v>43</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C165" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -26603,7 +26669,7 @@
         <v>43</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>47</v>
@@ -26617,13 +26683,13 @@
         <v>43</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
@@ -26631,13 +26697,13 @@
         <v>43</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169">
@@ -26645,13 +26711,13 @@
         <v>43</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
@@ -26659,7 +26725,7 @@
         <v>43</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C170" t="s" s="0">
         <v>47</v>
@@ -26673,13 +26739,13 @@
         <v>43</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C171" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="172">
@@ -26687,13 +26753,13 @@
         <v>43</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>47</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -26707,7 +26773,7 @@
         <v>111</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>23</v>
+        <v>565</v>
       </c>
     </row>
     <row r="174">
@@ -26715,13 +26781,13 @@
         <v>380</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>23</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175">
@@ -26729,7 +26795,7 @@
         <v>380</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C175" t="s" s="0">
         <v>111</v>
@@ -26743,7 +26809,7 @@
         <v>380</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>111</v>
@@ -26757,13 +26823,13 @@
         <v>380</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>373</v>
+        <v>430</v>
       </c>
     </row>
     <row r="178">
@@ -26771,13 +26837,13 @@
         <v>380</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>111</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>570</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179">
@@ -26791,7 +26857,7 @@
         <v>111</v>
       </c>
       <c r="D179" t="s" s="0">
-        <v>443</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -26805,7 +26871,7 @@
         <v>111</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>430</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181">
@@ -26819,7 +26885,7 @@
         <v>111</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>18</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182">
@@ -26833,7 +26899,7 @@
         <v>111</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>440</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
@@ -26847,7 +26913,7 @@
         <v>111</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>440</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184">
@@ -26861,7 +26927,7 @@
         <v>111</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>18</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185">
@@ -26903,7 +26969,7 @@
         <v>111</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
@@ -26917,7 +26983,7 @@
         <v>111</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>23</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
